--- a/Document/Investigate/AlaProject_InvestigateListOperationHaiVL_TamNT.xlsx
+++ b/Document/Investigate/AlaProject_InvestigateListOperationHaiVL_TamNT.xlsx
@@ -1,29 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ListOperationOfMainView" sheetId="1" r:id="rId1"/>
     <sheet name="ListOperationOfListMenu" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>NguyenPT</author>
+  </authors>
+  <commentList>
+    <comment ref="R28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NguyenPT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu Menu bar đang show thì khi tap vào content panel, menu bar sẽ hide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NguyenPT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Chỗ zoom in và zoom out anh thấy có giới hạn max và min. Em mô tả chỗ này nhé</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NguyenPT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mô tả thêm về Play Video view</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>NguyenPT</author>
+  </authors>
+  <commentList>
+    <comment ref="D30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NguyenPT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not run là sao nhỉ???</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NguyenPT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Bên app anh chạy còn có một menu là "Thông báo", không biết em có miss cái menu này không?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6266,31 +6419,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="F28:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="28" spans="18:18"/>
+    <row r="36" spans="6:15"/>
+    <row r="38" spans="6:15"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="D30:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="30" spans="4:4"/>
+    <row r="31" spans="4:4"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Document/Investigate/AlaProject_InvestigateListOperationHaiVL_TamNT.xlsx
+++ b/Document/Investigate/AlaProject_InvestigateListOperationHaiVL_TamNT.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ListOperationOfMainView" sheetId="1" r:id="rId1"/>
     <sheet name="ListOperationOfListMenu" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,56 +19,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>NguyenPT</author>
+    <author>tamnt2692</author>
   </authors>
   <commentList>
-    <comment ref="R28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>NguyenPT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Nếu Menu bar đang show thì khi tap vào content panel, menu bar sẽ hide</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>NguyenPT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Chỗ zoom in và zoom out anh thấy có giới hạn max và min. Em mô tả chỗ này nhé</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F38" authorId="0">
       <text>
         <r>
@@ -93,17 +46,7 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>NguyenPT</author>
-  </authors>
-  <commentList>
-    <comment ref="D30" authorId="0">
+    <comment ref="P39" authorId="1">
       <text>
         <r>
           <rPr>
@@ -113,7 +56,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>NguyenPT:</t>
+          <t>tamnt2692:</t>
         </r>
         <r>
           <rPr>
@@ -123,11 +66,21 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Not run là sao nhỉ???</t>
+min thì em xác định được, nhưng max thì em vẫn chưa thể nghĩ ra các để xác định</t>
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tamnt2692</author>
+  </authors>
+  <commentList>
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +90,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>NguyenPT:</t>
+          <t>tamnt2692:</t>
         </r>
         <r>
           <rPr>
@@ -147,12 +100,40 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Bên app anh chạy còn có một menu là "Thông báo", không biết em có miss cái menu này không?</t>
+not run: em chạy trên bluestack và đt thì nó không chạy, không load mới thông tin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>tamnt2692:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+đt của em bị hư nên em chạy trên bluestack bị miss menu "thông báo", đt thì có</t>
         </r>
       </text>
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,9 +453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -483,8 +464,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800349" y="6334125"/>
-          <a:ext cx="1152525" cy="561975"/>
+          <a:off x="2817282" y="6334125"/>
+          <a:ext cx="1468968" cy="1529292"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -518,7 +499,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Show  Play Video view</a:t>
+            <a:t>Show  Play Video view(it have</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> video content panel, video title, show video in browser button</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -528,7 +517,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>328613</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
@@ -548,8 +537,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3426619" y="5874543"/>
-          <a:ext cx="409575" cy="509588"/>
+          <a:off x="3526896" y="5949420"/>
+          <a:ext cx="409575" cy="359834"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -597,6 +586,151 @@
         <a:xfrm>
           <a:off x="4448175" y="2676525"/>
           <a:ext cx="1162050" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Horizontal drag(right) in content panel</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rounded Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="6419850"/>
+          <a:ext cx="1162050" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Load </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> new content or not</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="5248275"/>
+          <a:ext cx="1162050" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -642,25 +776,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rounded Rectangle 41"/>
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4457700" y="6419850"/>
+          <a:off x="5753100" y="6486525"/>
           <a:ext cx="1162050" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -713,152 +847,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> new content or not</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5743575" y="5248275"/>
-          <a:ext cx="1162050" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Horizontal drag(right) in content panel</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5753100" y="6486525"/>
-          <a:ext cx="1162050" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Load </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> previous content </a:t>
+            <a:t> old content </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1130,10 +1119,10 @@
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1142,8 +1131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7181849" y="6438901"/>
-          <a:ext cx="1295401" cy="809624"/>
+          <a:off x="7228416" y="6438901"/>
+          <a:ext cx="1460501" cy="1255182"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1181,7 +1170,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> or zoom out the picture in content panel</a:t>
+            <a:t> or zoom out the picture in content panel(have max-min)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1242,13 +1231,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
+      <xdr:colOff>347661</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>592666</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
@@ -1262,8 +1251,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7484268" y="6093619"/>
-          <a:ext cx="523876" cy="166688"/>
+          <a:off x="7574226" y="6054460"/>
+          <a:ext cx="523876" cy="245005"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1725,8 +1714,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1735,8 +1724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8734424" y="5676900"/>
-          <a:ext cx="1057275" cy="561975"/>
+          <a:off x="8793691" y="5676900"/>
+          <a:ext cx="1065741" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1805,8 +1794,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8543924" y="4891088"/>
-          <a:ext cx="719138" cy="785812"/>
+          <a:off x="8603191" y="4891088"/>
+          <a:ext cx="723371" cy="785812"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1835,15 +1824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>416982</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>255057</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1852,8 +1841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9067799" y="3971925"/>
-          <a:ext cx="1057275" cy="561975"/>
+          <a:off x="9010649" y="3241675"/>
+          <a:ext cx="1065741" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1901,16 +1890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601132</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>434974</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>48683</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1919,8 +1908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9163049" y="428625"/>
-          <a:ext cx="1057275" cy="561975"/>
+          <a:off x="9194799" y="2344208"/>
+          <a:ext cx="1061508" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1958,7 +1947,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> list menu</a:t>
+            <a:t> list menu or close list menu</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -2070,14 +2059,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416982</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2088,9 +2077,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8562974" y="4167188"/>
-          <a:ext cx="504825" cy="85725"/>
+        <a:xfrm flipV="1">
+          <a:off x="8622241" y="3522663"/>
+          <a:ext cx="388408" cy="644525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2120,12 +2109,12 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601132</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2139,8 +2128,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8582024" y="3186113"/>
-          <a:ext cx="581025" cy="14287"/>
+          <a:off x="8641291" y="2625196"/>
+          <a:ext cx="553508" cy="575204"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3477,8 +3466,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3487,8 +3476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2028825" y="4924425"/>
-          <a:ext cx="876300" cy="695325"/>
+          <a:off x="2041525" y="4924425"/>
+          <a:ext cx="880533" cy="811742"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3599,15 +3588,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>581024</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>186795</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3619,8 +3608,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2905126" y="4133850"/>
-          <a:ext cx="1333499" cy="1138237"/>
+          <a:off x="2922058" y="4133850"/>
+          <a:ext cx="1341966" cy="1196445"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3649,15 +3638,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>314326</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>138114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>200026</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>186797</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3668,9 +3657,122 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1533525" y="5272087"/>
-          <a:ext cx="495300" cy="9525"/>
+        <a:xfrm rot="10800000">
+          <a:off x="1541993" y="5281614"/>
+          <a:ext cx="499533" cy="48683"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556682</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>102658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rounded Rectangle 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9150349" y="4103158"/>
+          <a:ext cx="1061508" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Close menu bar(if it opening)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556682</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8603191" y="4384146"/>
+          <a:ext cx="547158" cy="506942"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3781,15 +3883,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>107950</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:rowOff>26458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>607483</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>26458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3798,8 +3900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505200" y="3000375"/>
-          <a:ext cx="1104900" cy="762000"/>
+          <a:off x="3177117" y="4217458"/>
+          <a:ext cx="1113366" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3839,15 +3941,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>113242</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3856,8 +3958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4867275" y="3171825"/>
-          <a:ext cx="1104900" cy="762000"/>
+          <a:off x="4410075" y="4473575"/>
+          <a:ext cx="1113367" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4071,15 +4173,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>364067</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>153458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>249767</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4088,8 +4190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781300" y="2047875"/>
-          <a:ext cx="1104900" cy="762000"/>
+          <a:off x="2819400" y="3201458"/>
+          <a:ext cx="1113367" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4129,15 +4231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>60325</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>7408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>555625</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>7408</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4146,8 +4248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="1076325"/>
-          <a:ext cx="1104900" cy="762000"/>
+          <a:off x="3129492" y="2293408"/>
+          <a:ext cx="1109133" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4186,16 +4288,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15873</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>49742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:colOff>372532</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>49742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4204,8 +4306,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619874" y="3838575"/>
-          <a:ext cx="1571625" cy="762000"/>
+          <a:off x="6768040" y="3859742"/>
+          <a:ext cx="1584325" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4244,16 +4346,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>131234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>372534</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>131234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4262,8 +4364,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="3581400"/>
-          <a:ext cx="1104900" cy="762000"/>
+          <a:off x="5397500" y="5274734"/>
+          <a:ext cx="1113367" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4361,15 +4463,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
+      <xdr:colOff>56093</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
+      <xdr:colOff>12172</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>92074</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4381,8 +4483,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5241133" y="2912269"/>
-          <a:ext cx="438149" cy="80963"/>
+          <a:off x="5048516" y="3985419"/>
+          <a:ext cx="406399" cy="569912"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4411,15 +4513,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
+      <xdr:colOff>12170</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>429683</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>131234</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4431,8 +4533,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5745957" y="2488407"/>
-          <a:ext cx="847724" cy="1338262"/>
+          <a:off x="5141648" y="4462198"/>
+          <a:ext cx="1207558" cy="417513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4466,10 +4568,10 @@
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15873</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>49742</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4481,8 +4583,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181725" y="3562351"/>
-          <a:ext cx="438149" cy="657224"/>
+          <a:off x="6224058" y="3562351"/>
+          <a:ext cx="543982" cy="678391"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4711,13 +4813,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>555626</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>7408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
+      <xdr:colOff>12172</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -4731,8 +4833,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4707732" y="931068"/>
-          <a:ext cx="266700" cy="1319213"/>
+          <a:off x="4696090" y="2216944"/>
+          <a:ext cx="383117" cy="1298046"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4761,15 +4863,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>249767</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153457</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4781,8 +4883,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3886200" y="2228851"/>
-          <a:ext cx="933450" cy="200024"/>
+          <a:off x="3932767" y="3562350"/>
+          <a:ext cx="916516" cy="20107"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4811,15 +4913,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>50801</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>552451</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>26457</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4831,8 +4933,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4057650" y="2228851"/>
-          <a:ext cx="762000" cy="771524"/>
+          <a:off x="3733801" y="3562350"/>
+          <a:ext cx="1115483" cy="655107"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4860,16 +4962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>325967</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4878,8 +4980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="4591050"/>
-          <a:ext cx="1104900" cy="762000"/>
+          <a:off x="939800" y="4337050"/>
+          <a:ext cx="1113367" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4923,16 +5025,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65618</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>527051</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4941,8 +5043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3600450" y="5562599"/>
-          <a:ext cx="1676400" cy="1228725"/>
+          <a:off x="2520951" y="5340349"/>
+          <a:ext cx="1689100" cy="1228725"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5389,16 +5491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556683</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>188383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35983</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5407,8 +5509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="4876800"/>
-          <a:ext cx="1323975" cy="800100"/>
+          <a:off x="9150350" y="4379383"/>
+          <a:ext cx="1332442" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5521,16 +5623,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>478367</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>364067</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5539,8 +5641,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553200" y="6076950"/>
-          <a:ext cx="1104900" cy="762000"/>
+          <a:off x="4775200" y="6352117"/>
+          <a:ext cx="1113367" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5635,15 +5737,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>457201</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1060</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>7408</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5655,8 +5757,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="2957513" y="1738312"/>
-          <a:ext cx="609600" cy="733425"/>
+          <a:off x="3051705" y="1661054"/>
+          <a:ext cx="493183" cy="771526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5884,28 +5986,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>372532</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>400054</xdr:colOff>
+      <xdr:colOff>556683</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="2"/>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="64" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8027194" y="3979068"/>
-          <a:ext cx="285753" cy="1528766"/>
+        <a:xfrm>
+          <a:off x="8352365" y="4240742"/>
+          <a:ext cx="797985" cy="538691"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5933,16 +6036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>421218</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>429685</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5953,9 +6056,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6772275" y="5743575"/>
-          <a:ext cx="400050" cy="266700"/>
+        <a:xfrm rot="5400000">
+          <a:off x="5485343" y="5883275"/>
+          <a:ext cx="315383" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5983,29 +6086,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>527052</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>92074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>56093</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>49211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="92" name="Straight Arrow Connector 91"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="2"/>
-          <a:endCxn id="56" idx="0"/>
+          <a:endCxn id="56" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4781551" y="4924425"/>
-          <a:ext cx="295274" cy="981075"/>
+          <a:off x="4228837" y="5216789"/>
+          <a:ext cx="719137" cy="756708"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6033,16 +6136,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>107950</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6054,8 +6157,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3048000" y="4714874"/>
-          <a:ext cx="457200" cy="257175"/>
+          <a:off x="2053167" y="4598458"/>
+          <a:ext cx="1123950" cy="119592"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6086,13 +6189,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>364068</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>153459</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6104,8 +6207,229 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2276476" y="3495675"/>
-          <a:ext cx="504825" cy="266700"/>
+          <a:off x="2289176" y="3495676"/>
+          <a:ext cx="530225" cy="86783"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35983</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>535517</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rounded Rectangle 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6788150" y="4897967"/>
+          <a:ext cx="1113367" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Select "Thông báo" menu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>125942</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>40216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rounded Rectangle 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="5717116"/>
+          <a:ext cx="1332442" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Show view</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12171</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35983</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="90" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5556515" y="4047331"/>
+          <a:ext cx="1211791" cy="1251479"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>535517</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>73554</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2116</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Straight Arrow Connector 99"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="3"/>
+          <a:endCxn id="93" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7901517" y="5278967"/>
+          <a:ext cx="765704" cy="438149"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6419,17 +6743,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F28:R38"/>
+  <dimension ref="F38:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="28" spans="18:18"/>
-    <row r="36" spans="6:15"/>
-    <row r="38" spans="6:15"/>
+    <row r="38" spans="6:16"/>
+    <row r="39" spans="6:16"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6439,16 +6762,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D30:D31"/>
+  <dimension ref="C30:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="30" spans="4:4"/>
-    <row r="31" spans="4:4"/>
+    <row r="30" spans="3:3"/>
+    <row r="31" spans="3:3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Document/Investigate/AlaProject_InvestigateListOperationHaiVL_TamNT.xlsx
+++ b/Document/Investigate/AlaProject_InvestigateListOperationHaiVL_TamNT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ListOperationOfMainView" sheetId="1" r:id="rId1"/>
@@ -72,68 +72,6 @@
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tamnt2692</author>
-  </authors>
-  <commentList>
-    <comment ref="C30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>tamnt2692:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-not run: em chạy trên bluestack và đt thì nó không chạy, không load mới thông tin</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>tamnt2692:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-đt của em bị hư nên em chạy trên bluestack bị miss menu "thông báo", đt thì có</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6745,8 +6683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F38:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6762,20 +6700,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C30:C31"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="30" spans="3:3"/>
-    <row r="31" spans="3:3"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
